--- a/TableS1.xlsx
+++ b/TableS1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nina-my.sharepoint.com/personal/matthew_grainger_nina_no/Documents/Papers_in_prep/Cumulative_meta_analysis/Research_waste/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.grainger\OneDrive - NINA\Papers_in_prep\Cumulative_meta_analysis\Research_waste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D374216-3147-4CF0-8815-7B6D9E21CE8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2D374216-3147-4CF0-8815-7B6D9E21CE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BD0FA95-370C-4F30-9054-D46099BA3355}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9119C465-0B51-475F-A063-474DBF93D89E}"/>
+    <workbookView xWindow="4152" yWindow="4152" windowWidth="23040" windowHeight="12204" xr2:uid="{9119C465-0B51-475F-A063-474DBF93D89E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -291,8 +291,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +611,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -692,58 +692,58 @@
     </row>
     <row r="8" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -762,7 +762,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -770,6 +770,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DA71518752CAC14DBB1E3171C431CFD3" ma:contentTypeVersion="7" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="f2c25530aced414b6a9574a1b80d6391">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ef536e1f-8253-438b-a862-76a89924a0e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="948e493ee046fd9bdaa153602d181740" ns3:_="">
     <xsd:import namespace="ef536e1f-8253-438b-a862-76a89924a0e5"/>
@@ -933,22 +948,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05CB41C3-B892-41DC-8FE9-077260A7565E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef536e1f-8253-438b-a862-76a89924a0e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A91C8A8-190A-4872-BF05-9B65CF167117}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{216988CD-4274-4EB1-9F11-C3518581831D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -964,28 +988,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A91C8A8-190A-4872-BF05-9B65CF167117}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05CB41C3-B892-41DC-8FE9-077260A7565E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef536e1f-8253-438b-a862-76a89924a0e5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>